--- a/Schematic/Wolf-2/Altium_Designer/W2-M_BOARD/Registr.xlsx
+++ b/Schematic/Wolf-2/Altium_Designer/W2-M_BOARD/Registr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
   <si>
     <t>Назначение</t>
   </si>
@@ -150,42 +150,6 @@
     <t>Включение TUNE_T</t>
   </si>
   <si>
-    <t>TUNE C1</t>
-  </si>
-  <si>
-    <t>TUNE C2</t>
-  </si>
-  <si>
-    <t>TUNE C0</t>
-  </si>
-  <si>
-    <t>TUNE L0</t>
-  </si>
-  <si>
-    <t>TUNE L1</t>
-  </si>
-  <si>
-    <t>TUNE L2</t>
-  </si>
-  <si>
-    <t>Управление тюнером</t>
-  </si>
-  <si>
-    <t>Управление тюнером C</t>
-  </si>
-  <si>
-    <t>Управление тюнером L</t>
-  </si>
-  <si>
-    <t>Выключено</t>
-  </si>
-  <si>
-    <t>Емкость С</t>
-  </si>
-  <si>
-    <t>Индуктивность L</t>
-  </si>
-  <si>
     <t>10p</t>
   </si>
   <si>
@@ -376,6 +340,54 @@
   </si>
   <si>
     <t>++</t>
+  </si>
+  <si>
+    <t>Tuner_U1</t>
+  </si>
+  <si>
+    <t>Tuner_U2</t>
+  </si>
+  <si>
+    <t>TUN_L4</t>
+  </si>
+  <si>
+    <t>TUN_L5</t>
+  </si>
+  <si>
+    <t>TUN_L6</t>
+  </si>
+  <si>
+    <t>TUN_L7</t>
+  </si>
+  <si>
+    <t>TUN_L3</t>
+  </si>
+  <si>
+    <t>TUN_L2</t>
+  </si>
+  <si>
+    <t>TUN_L1</t>
+  </si>
+  <si>
+    <t>TUN_С4</t>
+  </si>
+  <si>
+    <t>TUN_С3</t>
+  </si>
+  <si>
+    <t>TUN_С2</t>
+  </si>
+  <si>
+    <t>TUN_С1</t>
+  </si>
+  <si>
+    <t>TUN_С5</t>
+  </si>
+  <si>
+    <t>TUN_С6</t>
+  </si>
+  <si>
+    <t>TUN_С7</t>
   </si>
 </sst>
 </file>
@@ -453,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,16 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +486,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -755,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R52"/>
+  <dimension ref="B1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +820,7 @@
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C2">
@@ -814,7 +831,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3">
         <v>1</v>
       </c>
@@ -826,7 +843,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
+      <c r="B4" s="10"/>
       <c r="C4">
         <v>2</v>
       </c>
@@ -841,7 +858,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5">
         <v>3</v>
       </c>
@@ -868,7 +885,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="10"/>
       <c r="C6">
         <v>4</v>
       </c>
@@ -895,7 +912,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7">
         <v>5</v>
       </c>
@@ -922,7 +939,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8">
         <v>6</v>
       </c>
@@ -949,7 +966,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+      <c r="B9" s="10"/>
       <c r="C9">
         <v>7</v>
       </c>
@@ -976,7 +993,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
@@ -985,10 +1002,10 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="10"/>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -1006,15 +1023,15 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="I11" s="3">
         <v>1</v>
       </c>
@@ -1032,15 +1049,15 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="I12" s="3">
         <v>0</v>
       </c>
@@ -1058,15 +1075,15 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="I13" s="3">
         <v>1</v>
       </c>
@@ -1084,7 +1101,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="B14" s="10"/>
       <c r="C14">
         <v>12</v>
       </c>
@@ -1096,7 +1113,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="10"/>
       <c r="C15">
         <v>13</v>
       </c>
@@ -1105,7 +1122,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="B16" s="10"/>
       <c r="C16">
         <v>14</v>
       </c>
@@ -1113,26 +1130,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
       <c r="C17" s="4">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C18">
@@ -1144,21 +1158,9 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
       <c r="C19">
         <v>17</v>
       </c>
@@ -1168,156 +1170,72 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -1325,168 +1243,92 @@
       <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="I29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+      <c r="B33" s="10"/>
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>70</v>
+      <c r="B34" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -1494,168 +1336,122 @@
       <c r="D34" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
+      <c r="B35" s="10"/>
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
+      <c r="B36" s="10"/>
       <c r="C36">
         <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
+      <c r="B37" s="10"/>
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
+      <c r="B38" s="10"/>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
+      <c r="B39" s="10"/>
       <c r="C39">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
+      <c r="B40" s="10"/>
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
+      <c r="B41" s="10"/>
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="E41" s="11"/>
       <c r="I41" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q41" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>71</v>
+      <c r="B42" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="E42" s="11"/>
       <c r="I42" s="3">
         <v>1</v>
       </c>
@@ -1675,27 +1471,27 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>0</v>
-      </c>
-      <c r="R42" s="10">
+        <v>101</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
+      <c r="B43" s="10"/>
       <c r="C43">
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="E43" s="11"/>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -1718,25 +1514,25 @@
         <v>37</v>
       </c>
       <c r="P43" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q43" s="10">
+        <v>92</v>
+      </c>
+      <c r="Q43" s="7">
         <v>1.7</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="7">
         <v>2.8</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
+      <c r="B44" s="10"/>
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -1760,24 +1556,24 @@
         <v>36</v>
       </c>
       <c r="P44" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q44" s="10">
+        <v>93</v>
+      </c>
+      <c r="Q44" s="7">
         <v>2.8</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="7">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
+      <c r="B45" s="10"/>
       <c r="C45">
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="E45" s="11"/>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -1800,24 +1596,24 @@
         <v>31</v>
       </c>
       <c r="P45" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q45" s="11">
+        <v>94</v>
+      </c>
+      <c r="Q45" s="8">
         <v>6.5</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="8">
         <v>8.5</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
+      <c r="B46" s="10"/>
       <c r="C46">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="E46" s="11"/>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -1837,27 +1633,27 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q46" s="11">
+        <v>95</v>
+      </c>
+      <c r="Q46" s="8">
         <v>8.5</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="8">
         <v>12.5</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
+      <c r="B47" s="10"/>
       <c r="C47">
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="E47" s="11"/>
       <c r="I47" s="3">
         <v>1</v>
       </c>
@@ -1880,24 +1676,24 @@
         <v>32</v>
       </c>
       <c r="P47" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q47" s="11">
+        <v>96</v>
+      </c>
+      <c r="Q47" s="8">
         <v>12.5</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
+      <c r="B48" s="10"/>
       <c r="C48">
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="E48" s="11"/>
       <c r="I48" s="3">
         <v>1</v>
       </c>
@@ -1917,27 +1713,27 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q48" s="11">
+        <v>97</v>
+      </c>
+      <c r="Q48" s="8">
         <v>16</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
       <c r="C49">
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="E49" s="11"/>
       <c r="I49" s="3">
         <v>1</v>
       </c>
@@ -1957,48 +1753,70 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P49" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>23</v>
+      </c>
+      <c r="R49" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>60</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
         <v>110</v>
       </c>
-      <c r="Q49" s="11">
-        <v>23</v>
-      </c>
-      <c r="R49" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q50" s="11">
-        <v>60</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E51" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -2006,27 +1824,317 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="E10:F13"/>
-    <mergeCell ref="E20:E25"/>
+  <mergeCells count="13">
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B58:B65"/>
     <mergeCell ref="B26:B33"/>
     <mergeCell ref="B34:B41"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="E44:E49"/>
     <mergeCell ref="E38:E43"/>
     <mergeCell ref="E27:F30"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="E10:F13"/>
+    <mergeCell ref="E20:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
